--- a/rekap pembukuan pajak 2024/Gaji/01 JANUARI GAJI CV. ARTO MORO TER.xlsx
+++ b/rekap pembukuan pajak 2024/Gaji/01 JANUARI GAJI CV. ARTO MORO TER.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TER" sheetId="2" r:id="rId1"/>
     <sheet name="01.2024" sheetId="3" r:id="rId2"/>
+    <sheet name="02.2024" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="100">
   <si>
     <t>TER A</t>
   </si>
@@ -319,6 +320,12 @@
   </si>
   <si>
     <t>252826300504000</t>
+  </si>
+  <si>
+    <t>GAJI 02-24</t>
+  </si>
+  <si>
+    <t>PPH PS 21 FEBRUARI 2024</t>
   </si>
 </sst>
 </file>
@@ -449,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -673,34 +680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -720,30 +699,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -778,7 +733,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -892,15 +847,6 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,10 +859,10 @@
     <xf numFmtId="43" fontId="4" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -935,7 +881,7 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -947,28 +893,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -986,13 +911,19 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1039,6 +970,27 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1391,60 +1343,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="B1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="78" t="s">
+      <c r="L1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="78" t="s">
+      <c r="Q1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
     </row>
     <row r="2" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
     </row>
     <row r="3" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -3575,8 +3527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3606,28 +3558,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
       <c r="Y1" s="11"/>
@@ -3638,30 +3590,30 @@
       <c r="AD1" s="11"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
@@ -3679,21 +3631,21 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="30"/>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="84" t="s">
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="86" t="s">
+      <c r="R3" s="78" t="s">
         <v>17</v>
       </c>
       <c r="S3" s="12"/>
@@ -3758,8 +3710,8 @@
       <c r="P4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="87"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="79"/>
       <c r="S4" s="31" t="s">
         <v>18</v>
       </c>
@@ -3781,27 +3733,27 @@
       <c r="Z4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="60"/>
+      <c r="AA4" s="57"/>
       <c r="AB4" s="14" t="s">
         <v>48</v>
       </c>
       <c r="AC4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="61" t="s">
+      <c r="AD4" s="58" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="92"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="38" t="s">
         <v>29</v>
       </c>
@@ -3836,26 +3788,26 @@
       <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="69" t="str">
+      <c r="G6" s="59" t="str">
         <f>IF(F6="TK/0","TER A",IF(F6="TK/1","TER A",IF(F6="K/0","TER A",IF(F6="TK/2","TER B",IF(F6="TK/3","TER B",IF(F6="K/1","TER B",IF(F6="K/2","TER B",IF(F6="K/3","TER C","ERROR"))))))))</f>
         <v>TER C</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H6" s="63">
         <v>4000000</v>
       </c>
       <c r="I6" s="16">
@@ -3925,26 +3877,26 @@
         <f>+A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="69" t="str">
+      <c r="G7" s="59" t="str">
         <f>IF(F7="TK/0","TER A",IF(F7="TK/1","TER A",IF(F7="K/0","TER A",IF(F7="TK/2","TER B",IF(F7="TK/3","TER B",IF(F7="K/1","TER B",IF(F7="K/2","TER B",IF(F7="K/3","TER C","ERROR"))))))))</f>
         <v>TER B</v>
       </c>
-      <c r="H7" s="73">
+      <c r="H7" s="63">
         <v>3500000</v>
       </c>
       <c r="I7" s="16">
@@ -4014,26 +3966,26 @@
         <f>+A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="69" t="str">
+      <c r="G8" s="59" t="str">
         <f>IF(F8="TK/0","TER A",IF(F8="TK/1","TER A",IF(F8="K/0","TER A",IF(F8="TK/2","TER B",IF(F8="TK/3","TER B",IF(F8="K/1","TER B",IF(F8="K/2","TER B",IF(F8="K/3","TER C","ERROR"))))))))</f>
         <v>TER C</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="63">
         <v>3500000</v>
       </c>
       <c r="I8" s="16">
@@ -4103,40 +4055,40 @@
         <f>+A8+1</f>
         <v>4</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="69" t="str">
+      <c r="G9" s="59" t="str">
         <f>IF(F9="TK/0","TER A",IF(F9="TK/1","TER A",IF(F9="K/0","TER A",IF(F9="TK/2","TER B",IF(F9="TK/3","TER B",IF(F9="K/1","TER B",IF(F9="K/2","TER B",IF(F9="K/3","TER C","ERROR"))))))))</f>
         <v>TER A</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="64">
         <v>2100000</v>
       </c>
-      <c r="I9" s="74">
+      <c r="I9" s="64">
         <f>48000*(25)</f>
         <v>1200000</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="62">
         <f>40000*(1+1+1+1)</f>
         <v>160000</v>
       </c>
-      <c r="K9" s="71">
+      <c r="K9" s="61">
         <v>200000</v>
       </c>
-      <c r="L9" s="75">
+      <c r="L9" s="65">
         <v>0</v>
       </c>
       <c r="M9" s="16"/>
@@ -4194,40 +4146,40 @@
         <f>+A9+1</f>
         <v>5</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="69" t="str">
+      <c r="G10" s="59" t="str">
         <f>IF(F10="TK/0","TER A",IF(F10="TK/1","TER A",IF(F10="K/0","TER A",IF(F10="TK/2","TER B",IF(F10="TK/3","TER B",IF(F10="K/1","TER B",IF(F10="K/2","TER B",IF(F10="K/3","TER C","ERROR"))))))))</f>
         <v>TER A</v>
       </c>
-      <c r="H10" s="73">
+      <c r="H10" s="63">
         <v>1600000</v>
       </c>
-      <c r="I10" s="73">
+      <c r="I10" s="63">
         <f>46500*(25)</f>
         <v>1162500</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="62">
         <f t="shared" ref="J10:J17" si="8">40000*(1+1+1+1)</f>
         <v>160000</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="61">
         <v>200000</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="65">
         <v>0</v>
       </c>
       <c r="M10" s="16"/>
@@ -4285,40 +4237,40 @@
         <f t="shared" ref="A11:A18" si="9">+A10+1</f>
         <v>6</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="69" t="str">
+      <c r="G11" s="59" t="str">
         <f t="shared" ref="G11:G18" si="10">IF(F11="TK/0","TER A",IF(F11="TK/1","TER A",IF(F11="K/0","TER A",IF(F11="TK/2","TER B",IF(F11="TK/3","TER B",IF(F11="K/1","TER B",IF(F11="K/2","TER B",IF(F11="K/3","TER C","ERROR"))))))))</f>
         <v>TER A</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="63">
         <v>1500000</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="63">
         <f>45500*(25-3)</f>
         <v>1001000</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="62">
         <f>40000*(1+1+0+1)</f>
         <v>120000</v>
       </c>
       <c r="K11" s="16">
         <v>0</v>
       </c>
-      <c r="L11" s="75">
+      <c r="L11" s="65">
         <v>0</v>
       </c>
       <c r="M11" s="21"/>
@@ -4374,43 +4326,43 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="69" t="str">
+      <c r="G12" s="59" t="str">
         <f t="shared" si="10"/>
         <v>TER B</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="63">
         <v>1100000</v>
       </c>
-      <c r="I12" s="73">
+      <c r="I12" s="63">
         <f>55000*(25-1)</f>
         <v>1320000</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="62">
         <f>40000*(1+0+1+1)</f>
         <v>120000</v>
       </c>
       <c r="K12" s="16">
         <v>0</v>
       </c>
-      <c r="L12" s="75">
-        <v>0</v>
-      </c>
-      <c r="M12" s="46"/>
+      <c r="L12" s="65">
+        <v>0</v>
+      </c>
+      <c r="M12" s="43"/>
       <c r="N12" s="16">
         <v>0</v>
       </c>
@@ -4463,43 +4415,43 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="69" t="str">
+      <c r="G13" s="59" t="str">
         <f t="shared" si="10"/>
         <v>TER A</v>
       </c>
-      <c r="H13" s="73">
+      <c r="H13" s="63">
         <v>2100000</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I13" s="63">
         <f>48000*(25)</f>
         <v>1200000</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="62">
         <f t="shared" si="8"/>
         <v>160000</v>
       </c>
-      <c r="K13" s="71">
+      <c r="K13" s="61">
         <v>200000</v>
       </c>
-      <c r="L13" s="75">
-        <v>0</v>
-      </c>
-      <c r="M13" s="46"/>
+      <c r="L13" s="65">
+        <v>0</v>
+      </c>
+      <c r="M13" s="43"/>
       <c r="N13" s="16">
         <v>0</v>
       </c>
@@ -4552,43 +4504,43 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="70" t="str">
+      <c r="G14" s="60" t="str">
         <f t="shared" si="10"/>
         <v>TER B</v>
       </c>
-      <c r="H14" s="73">
+      <c r="H14" s="63">
         <f>(115000*11)+(115000*12)</f>
         <v>2645000</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
       </c>
-      <c r="J14" s="72">
+      <c r="J14" s="62">
         <f t="shared" si="8"/>
         <v>160000</v>
       </c>
-      <c r="K14" s="71">
+      <c r="K14" s="61">
         <v>200000</v>
       </c>
-      <c r="L14" s="75">
-        <v>0</v>
-      </c>
-      <c r="M14" s="46"/>
+      <c r="L14" s="65">
+        <v>0</v>
+      </c>
+      <c r="M14" s="43"/>
       <c r="N14" s="16">
         <v>0</v>
       </c>
@@ -4641,43 +4593,43 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="70" t="str">
+      <c r="G15" s="60" t="str">
         <f t="shared" si="10"/>
         <v>TER B</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="63">
         <f t="shared" ref="H15:H17" si="12">(115000*11)+(115000*12)</f>
         <v>2645000</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
       </c>
-      <c r="J15" s="72">
+      <c r="J15" s="62">
         <f t="shared" si="8"/>
         <v>160000</v>
       </c>
-      <c r="K15" s="71">
+      <c r="K15" s="61">
         <v>200000</v>
       </c>
-      <c r="L15" s="75">
-        <v>0</v>
-      </c>
-      <c r="M15" s="46"/>
+      <c r="L15" s="65">
+        <v>0</v>
+      </c>
+      <c r="M15" s="43"/>
       <c r="N15" s="16">
         <v>0</v>
       </c>
@@ -4730,43 +4682,43 @@
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="70" t="str">
+      <c r="G16" s="60" t="str">
         <f t="shared" si="10"/>
         <v>TER C</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="63">
         <f t="shared" si="12"/>
         <v>2645000</v>
       </c>
       <c r="I16" s="16">
         <v>0</v>
       </c>
-      <c r="J16" s="72">
+      <c r="J16" s="62">
         <f t="shared" si="8"/>
         <v>160000</v>
       </c>
-      <c r="K16" s="71">
+      <c r="K16" s="61">
         <v>200000</v>
       </c>
-      <c r="L16" s="75">
-        <v>0</v>
-      </c>
-      <c r="M16" s="46"/>
+      <c r="L16" s="65">
+        <v>0</v>
+      </c>
+      <c r="M16" s="43"/>
       <c r="N16" s="16">
         <v>0</v>
       </c>
@@ -4819,43 +4771,43 @@
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="70" t="str">
+      <c r="G17" s="60" t="str">
         <f t="shared" si="10"/>
         <v>TER B</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="63">
         <f t="shared" si="12"/>
         <v>2645000</v>
       </c>
       <c r="I17" s="16">
         <v>0</v>
       </c>
-      <c r="J17" s="72">
+      <c r="J17" s="62">
         <f t="shared" si="8"/>
         <v>160000</v>
       </c>
-      <c r="K17" s="71">
+      <c r="K17" s="61">
         <v>200000</v>
       </c>
-      <c r="L17" s="75">
-        <v>0</v>
-      </c>
-      <c r="M17" s="46"/>
+      <c r="L17" s="65">
+        <v>0</v>
+      </c>
+      <c r="M17" s="43"/>
       <c r="N17" s="16">
         <v>0</v>
       </c>
@@ -4908,43 +4860,43 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="70" t="str">
+      <c r="G18" s="60" t="str">
         <f t="shared" si="10"/>
         <v>TER A</v>
       </c>
-      <c r="H18" s="73">
+      <c r="H18" s="63">
         <f>(115000*(11-3))+(115000*12)</f>
         <v>2300000</v>
       </c>
       <c r="I18" s="16">
         <v>0</v>
       </c>
-      <c r="J18" s="72">
+      <c r="J18" s="62">
         <f>40000*(1+0+1+1)</f>
         <v>120000</v>
       </c>
       <c r="K18" s="16">
         <v>0</v>
       </c>
-      <c r="L18" s="75">
-        <v>0</v>
-      </c>
-      <c r="M18" s="46"/>
+      <c r="L18" s="65">
+        <v>0</v>
+      </c>
+      <c r="M18" s="43"/>
       <c r="N18" s="16">
         <v>0</v>
       </c>
@@ -4994,37 +4946,37 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="50"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="49"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="46"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="25"/>
       <c r="S19" s="24"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
       <c r="V19" s="23"/>
     </row>
     <row r="20" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="53"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="26">
         <f t="shared" ref="G20:L20" si="13">SUM(G6:G19)</f>
         <v>0</v>
@@ -5089,89 +5041,89 @@
         <f>SUM(Z6:Z19)</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="59"/>
+      <c r="AA20" s="56"/>
     </row>
     <row r="21" spans="1:27" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="O25" s="79" t="s">
+      <c r="D25" s="51"/>
+      <c r="O25" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="O26" s="55" t="s">
+      <c r="D26" s="51"/>
+      <c r="O26" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="P26" s="76">
+      <c r="P26" s="66">
         <f>A18</f>
         <v>13</v>
       </c>
-      <c r="Q26" s="57">
+      <c r="Q26" s="54">
         <f>Q20</f>
         <v>41043500</v>
       </c>
-      <c r="R26" s="57">
+      <c r="R26" s="54">
         <f>SUM(U11:U19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O27" s="55" t="s">
+      <c r="O27" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="P27" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="57">
-        <v>0</v>
-      </c>
-      <c r="R27" s="55">
+      <c r="P27" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="54">
+        <v>0</v>
+      </c>
+      <c r="R27" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O28" s="55" t="s">
+      <c r="O28" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57">
+      <c r="P28" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54">
         <f>Q28*2.5%</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O29" s="57"/>
-      <c r="P29" s="77">
+      <c r="O29" s="54"/>
+      <c r="P29" s="67">
         <f>SUM(P26:P28)</f>
         <v>13</v>
       </c>
-      <c r="Q29" s="58">
+      <c r="Q29" s="55">
         <f>SUM(Q26:Q28)</f>
         <v>41043500</v>
       </c>
-      <c r="R29" s="58">
+      <c r="R29" s="55">
         <f>SUM(R26:R28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="O30" s="57"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="57"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="54"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G31" s="29"/>
@@ -5179,12 +5131,12 @@
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="80" t="s">
+      <c r="O31" s="54"/>
+      <c r="P31" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="57">
+      <c r="Q31" s="72"/>
+      <c r="R31" s="54">
         <v>0</v>
       </c>
     </row>
@@ -5194,12 +5146,12 @@
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="80" t="s">
+      <c r="O32" s="54"/>
+      <c r="P32" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="58">
+      <c r="Q32" s="72"/>
+      <c r="R32" s="55">
         <f>SUM(R29:R31)</f>
         <v>0</v>
       </c>
@@ -5248,4 +5200,1681 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="73" style="13" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11.7109375" style="13" customWidth="1"/>
+    <col min="12" max="14" width="11.7109375" style="28" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="28" customWidth="1"/>
+    <col min="16" max="16" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.140625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="13" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" style="13" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" style="13" customWidth="1"/>
+    <col min="24" max="26" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" style="13" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" style="13" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="13" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" style="13" customWidth="1"/>
+    <col min="31" max="16384" width="8.7109375" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+    </row>
+    <row r="3" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+    </row>
+    <row r="4" spans="1:30" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="59" t="str">
+        <f>IF(F6="TK/0","TER A",IF(F6="TK/1","TER A",IF(F6="K/0","TER A",IF(F6="TK/2","TER B",IF(F6="TK/3","TER B",IF(F6="K/1","TER B",IF(F6="K/2","TER B",IF(F6="K/3","TER C","ERROR"))))))))</f>
+        <v>TER C</v>
+      </c>
+      <c r="H6" s="63">
+        <v>4000000</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+      <c r="P6" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <f>SUM(H6:P6)</f>
+        <v>4000000</v>
+      </c>
+      <c r="R6" s="33">
+        <f>IF(G6="TER C",VLOOKUP(Q6,TER!$L$4:$O$44,4,TRUE),IF(G6="TER B",VLOOKUP(Q6,TER!$G$4:$J$43,4,TRUE),IF(G6="TER A",VLOOKUP(Q6,TER!$B$4:$E$47,4,TRUE),"ERROR")))</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="18">
+        <f t="shared" ref="S6:S18" si="0">IF(E6="TIDAK ADA",0,(Q6*R6))</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="18">
+        <f t="shared" ref="T6:T18" si="1">IF(E6&lt;&gt;"TIDAK ADA",0,(Q6*R6)*120%)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="18">
+        <f>T6+S6</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <f>Q6-U6</f>
+        <v>4000000</v>
+      </c>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37">
+        <f t="shared" ref="X6:X18" si="2">P6</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="37">
+        <f>U6-X6</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="37">
+        <f>Y6+X6</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <f>+A6+1</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="59" t="str">
+        <f>IF(F7="TK/0","TER A",IF(F7="TK/1","TER A",IF(F7="K/0","TER A",IF(F7="TK/2","TER B",IF(F7="TK/3","TER B",IF(F7="K/1","TER B",IF(F7="K/2","TER B",IF(F7="K/3","TER C","ERROR"))))))))</f>
+        <v>TER B</v>
+      </c>
+      <c r="H7" s="63">
+        <v>3500000</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <f t="shared" ref="Q7:Q18" si="3">SUM(H7:P7)</f>
+        <v>3500000</v>
+      </c>
+      <c r="R7" s="17">
+        <f>IF(G7="TER C",VLOOKUP(Q7,TER!$L$4:$O$44,4,TRUE),IF(G7="TER B",VLOOKUP(Q7,TER!$G$4:$J$43,4,TRUE),IF(G7="TER A",VLOOKUP(Q7,TER!$B$4:$E$47,4,TRUE),"ERROR")))</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="18">
+        <f t="shared" ref="U7:U18" si="4">T7+S7</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <f>Q7-U7</f>
+        <v>3500000</v>
+      </c>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="37">
+        <f t="shared" ref="Y7:Y18" si="5">U7-X7</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="37">
+        <f t="shared" ref="Z7:Z18" si="6">Y7+X7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <f>+A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="59" t="str">
+        <f>IF(F8="TK/0","TER A",IF(F8="TK/1","TER A",IF(F8="K/0","TER A",IF(F8="TK/2","TER B",IF(F8="TK/3","TER B",IF(F8="K/1","TER B",IF(F8="K/2","TER B",IF(F8="K/3","TER C","ERROR"))))))))</f>
+        <v>TER C</v>
+      </c>
+      <c r="H8" s="63">
+        <v>3500000</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <f t="shared" si="3"/>
+        <v>3500000</v>
+      </c>
+      <c r="R8" s="17">
+        <f>IF(G8="TER C",VLOOKUP(Q8,TER!$L$4:$O$44,4,TRUE),IF(G8="TER B",VLOOKUP(Q8,TER!$G$4:$J$43,4,TRUE),IF(G8="TER A",VLOOKUP(Q8,TER!$B$4:$E$47,4,TRUE),"ERROR")))</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="19">
+        <f t="shared" ref="V8:V10" si="7">Q8-U8</f>
+        <v>3500000</v>
+      </c>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <f>+A8+1</f>
+        <v>4</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="59" t="str">
+        <f>IF(F9="TK/0","TER A",IF(F9="TK/1","TER A",IF(F9="K/0","TER A",IF(F9="TK/2","TER B",IF(F9="TK/3","TER B",IF(F9="K/1","TER B",IF(F9="K/2","TER B",IF(F9="K/3","TER C","ERROR"))))))))</f>
+        <v>TER A</v>
+      </c>
+      <c r="H9" s="64">
+        <v>2100000</v>
+      </c>
+      <c r="I9" s="64">
+        <f>48000*(25)</f>
+        <v>1200000</v>
+      </c>
+      <c r="J9" s="62">
+        <f>40000*(1+1+1+1)</f>
+        <v>160000</v>
+      </c>
+      <c r="K9" s="61">
+        <v>200000</v>
+      </c>
+      <c r="L9" s="65">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <f t="shared" si="3"/>
+        <v>3660000</v>
+      </c>
+      <c r="R9" s="17">
+        <f>IF(G9="TER C",VLOOKUP(Q9,TER!$L$4:$O$44,4,TRUE),IF(G9="TER B",VLOOKUP(Q9,TER!$G$4:$J$43,4,TRUE),IF(G9="TER A",VLOOKUP(Q9,TER!$B$4:$E$47,4,TRUE),"ERROR")))</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="19">
+        <f t="shared" si="7"/>
+        <v>3660000</v>
+      </c>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <f>+A9+1</f>
+        <v>5</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="59" t="str">
+        <f>IF(F10="TK/0","TER A",IF(F10="TK/1","TER A",IF(F10="K/0","TER A",IF(F10="TK/2","TER B",IF(F10="TK/3","TER B",IF(F10="K/1","TER B",IF(F10="K/2","TER B",IF(F10="K/3","TER C","ERROR"))))))))</f>
+        <v>TER A</v>
+      </c>
+      <c r="H10" s="63">
+        <v>1600000</v>
+      </c>
+      <c r="I10" s="63">
+        <f>46500*(25)</f>
+        <v>1162500</v>
+      </c>
+      <c r="J10" s="62">
+        <f t="shared" ref="J10:J17" si="8">40000*(1+1+1+1)</f>
+        <v>160000</v>
+      </c>
+      <c r="K10" s="61">
+        <v>200000</v>
+      </c>
+      <c r="L10" s="65">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+      <c r="P10" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <f t="shared" si="3"/>
+        <v>3122500</v>
+      </c>
+      <c r="R10" s="17">
+        <f>IF(G10="TER C",VLOOKUP(Q10,TER!$L$4:$O$44,4,TRUE),IF(G10="TER B",VLOOKUP(Q10,TER!$G$4:$J$43,4,TRUE),IF(G10="TER A",VLOOKUP(Q10,TER!$B$4:$E$47,4,TRUE),"ERROR")))</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="19">
+        <f t="shared" si="7"/>
+        <v>3122500</v>
+      </c>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <f t="shared" ref="A11:A18" si="9">+A10+1</f>
+        <v>6</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="59" t="str">
+        <f t="shared" ref="G11:G18" si="10">IF(F11="TK/0","TER A",IF(F11="TK/1","TER A",IF(F11="K/0","TER A",IF(F11="TK/2","TER B",IF(F11="TK/3","TER B",IF(F11="K/1","TER B",IF(F11="K/2","TER B",IF(F11="K/3","TER C","ERROR"))))))))</f>
+        <v>TER A</v>
+      </c>
+      <c r="H11" s="63">
+        <v>1500000</v>
+      </c>
+      <c r="I11" s="63">
+        <f>45500*(25-3)</f>
+        <v>1001000</v>
+      </c>
+      <c r="J11" s="62">
+        <f>40000*(1+1+0+1)</f>
+        <v>120000</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="65">
+        <v>0</v>
+      </c>
+      <c r="M11" s="21"/>
+      <c r="N11" s="16">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+      <c r="P11" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <f t="shared" si="3"/>
+        <v>2621000</v>
+      </c>
+      <c r="R11" s="17">
+        <f>IF(G11="TER C",VLOOKUP(Q11,TER!$L$4:$O$44,4,TRUE),IF(G11="TER B",VLOOKUP(Q11,TER!$G$4:$J$43,4,TRUE),IF(G11="TER A",VLOOKUP(Q11,TER!$B$4:$E$47,4,TRUE),"ERROR")))</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="18">
+        <f t="shared" ref="V11:V18" si="11">+Q11-S11-T11</f>
+        <v>2621000</v>
+      </c>
+      <c r="X11" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="37"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="59" t="str">
+        <f t="shared" si="10"/>
+        <v>TER B</v>
+      </c>
+      <c r="H12" s="63">
+        <v>1100000</v>
+      </c>
+      <c r="I12" s="63">
+        <f>55000*(25-1)</f>
+        <v>1320000</v>
+      </c>
+      <c r="J12" s="62">
+        <f>40000*(1+0+1+1)</f>
+        <v>120000</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="65">
+        <v>0</v>
+      </c>
+      <c r="M12" s="43"/>
+      <c r="N12" s="16">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0</v>
+      </c>
+      <c r="P12" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <f t="shared" si="3"/>
+        <v>2540000</v>
+      </c>
+      <c r="R12" s="17">
+        <f>IF(G12="TER C",VLOOKUP(Q12,TER!$L$4:$O$44,4,TRUE),IF(G12="TER B",VLOOKUP(Q12,TER!$G$4:$J$43,4,TRUE),IF(G12="TER A",VLOOKUP(Q12,TER!$B$4:$E$47,4,TRUE),"ERROR")))</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="18">
+        <f t="shared" si="11"/>
+        <v>2540000</v>
+      </c>
+      <c r="X12" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="37"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="59" t="str">
+        <f t="shared" si="10"/>
+        <v>TER A</v>
+      </c>
+      <c r="H13" s="63">
+        <v>2100000</v>
+      </c>
+      <c r="I13" s="63">
+        <f>48000*(25)</f>
+        <v>1200000</v>
+      </c>
+      <c r="J13" s="62">
+        <f t="shared" si="8"/>
+        <v>160000</v>
+      </c>
+      <c r="K13" s="61">
+        <v>200000</v>
+      </c>
+      <c r="L13" s="65">
+        <v>0</v>
+      </c>
+      <c r="M13" s="43"/>
+      <c r="N13" s="16">
+        <v>0</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+      <c r="P13" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <f t="shared" si="3"/>
+        <v>3660000</v>
+      </c>
+      <c r="R13" s="17">
+        <f>IF(G13="TER C",VLOOKUP(Q13,TER!$L$4:$O$44,4,TRUE),IF(G13="TER B",VLOOKUP(Q13,TER!$G$4:$J$43,4,TRUE),IF(G13="TER A",VLOOKUP(Q13,TER!$B$4:$E$47,4,TRUE),"ERROR")))</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="18">
+        <f t="shared" si="11"/>
+        <v>3660000</v>
+      </c>
+      <c r="X13" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="37"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="60" t="str">
+        <f t="shared" si="10"/>
+        <v>TER B</v>
+      </c>
+      <c r="H14" s="63">
+        <f>(115000*11)+(115000*12)</f>
+        <v>2645000</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="62">
+        <f t="shared" si="8"/>
+        <v>160000</v>
+      </c>
+      <c r="K14" s="61">
+        <v>200000</v>
+      </c>
+      <c r="L14" s="65">
+        <v>0</v>
+      </c>
+      <c r="M14" s="43"/>
+      <c r="N14" s="16">
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
+      <c r="P14" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <f t="shared" si="3"/>
+        <v>3005000</v>
+      </c>
+      <c r="R14" s="17">
+        <f>IF(G14="TER C",VLOOKUP(Q14,TER!$L$4:$O$44,4,TRUE),IF(G14="TER B",VLOOKUP(Q14,TER!$G$4:$J$43,4,TRUE),IF(G14="TER A",VLOOKUP(Q14,TER!$B$4:$E$47,4,TRUE),"ERROR")))</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="18">
+        <f t="shared" si="11"/>
+        <v>3005000</v>
+      </c>
+      <c r="X14" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="37"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="60" t="str">
+        <f t="shared" si="10"/>
+        <v>TER B</v>
+      </c>
+      <c r="H15" s="63">
+        <f t="shared" ref="H15:H17" si="12">(115000*11)+(115000*12)</f>
+        <v>2645000</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="62">
+        <f t="shared" si="8"/>
+        <v>160000</v>
+      </c>
+      <c r="K15" s="61">
+        <v>200000</v>
+      </c>
+      <c r="L15" s="65">
+        <v>0</v>
+      </c>
+      <c r="M15" s="43"/>
+      <c r="N15" s="16">
+        <v>0</v>
+      </c>
+      <c r="O15" s="16">
+        <v>0</v>
+      </c>
+      <c r="P15" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <f t="shared" si="3"/>
+        <v>3005000</v>
+      </c>
+      <c r="R15" s="17">
+        <f>IF(G15="TER C",VLOOKUP(Q15,TER!$L$4:$O$44,4,TRUE),IF(G15="TER B",VLOOKUP(Q15,TER!$G$4:$J$43,4,TRUE),IF(G15="TER A",VLOOKUP(Q15,TER!$B$4:$E$47,4,TRUE),"ERROR")))</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="18">
+        <f t="shared" si="11"/>
+        <v>3005000</v>
+      </c>
+      <c r="X15" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="37"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="60" t="str">
+        <f t="shared" si="10"/>
+        <v>TER C</v>
+      </c>
+      <c r="H16" s="63">
+        <f t="shared" si="12"/>
+        <v>2645000</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="62">
+        <f t="shared" si="8"/>
+        <v>160000</v>
+      </c>
+      <c r="K16" s="61">
+        <v>200000</v>
+      </c>
+      <c r="L16" s="65">
+        <v>0</v>
+      </c>
+      <c r="M16" s="43"/>
+      <c r="N16" s="16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
+        <f t="shared" si="3"/>
+        <v>3005000</v>
+      </c>
+      <c r="R16" s="17">
+        <f>IF(G16="TER C",VLOOKUP(Q16,TER!$L$4:$O$44,4,TRUE),IF(G16="TER B",VLOOKUP(Q16,TER!$G$4:$J$43,4,TRUE),IF(G16="TER A",VLOOKUP(Q16,TER!$B$4:$E$47,4,TRUE),"ERROR")))</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="18">
+        <f t="shared" si="11"/>
+        <v>3005000</v>
+      </c>
+      <c r="X16" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="37"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="60" t="str">
+        <f t="shared" si="10"/>
+        <v>TER B</v>
+      </c>
+      <c r="H17" s="63">
+        <f t="shared" si="12"/>
+        <v>2645000</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="62">
+        <f t="shared" si="8"/>
+        <v>160000</v>
+      </c>
+      <c r="K17" s="61">
+        <v>200000</v>
+      </c>
+      <c r="L17" s="65">
+        <v>0</v>
+      </c>
+      <c r="M17" s="43"/>
+      <c r="N17" s="16">
+        <v>0</v>
+      </c>
+      <c r="O17" s="16">
+        <v>0</v>
+      </c>
+      <c r="P17" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
+        <f t="shared" si="3"/>
+        <v>3005000</v>
+      </c>
+      <c r="R17" s="17">
+        <f>IF(G17="TER C",VLOOKUP(Q17,TER!$L$4:$O$44,4,TRUE),IF(G17="TER B",VLOOKUP(Q17,TER!$G$4:$J$43,4,TRUE),IF(G17="TER A",VLOOKUP(Q17,TER!$B$4:$E$47,4,TRUE),"ERROR")))</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="18">
+        <f t="shared" si="11"/>
+        <v>3005000</v>
+      </c>
+      <c r="X17" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="37"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="60" t="str">
+        <f t="shared" si="10"/>
+        <v>TER A</v>
+      </c>
+      <c r="H18" s="63">
+        <f>(115000*(11-3))+(115000*12)</f>
+        <v>2300000</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+      <c r="J18" s="62">
+        <f>40000*(1+0+1+1)</f>
+        <v>120000</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="65">
+        <v>0</v>
+      </c>
+      <c r="M18" s="43"/>
+      <c r="N18" s="16">
+        <v>0</v>
+      </c>
+      <c r="O18" s="16">
+        <v>0</v>
+      </c>
+      <c r="P18" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <f t="shared" si="3"/>
+        <v>2420000</v>
+      </c>
+      <c r="R18" s="17">
+        <f>IF(G18="TER C",VLOOKUP(Q18,TER!$L$4:$O$44,4,TRUE),IF(G18="TER B",VLOOKUP(Q18,TER!$G$4:$J$43,4,TRUE),IF(G18="TER A",VLOOKUP(Q18,TER!$B$4:$E$47,4,TRUE),"ERROR")))</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="18">
+        <f t="shared" si="11"/>
+        <v>2420000</v>
+      </c>
+      <c r="X18" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="37"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="23"/>
+    </row>
+    <row r="20" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="26">
+        <f t="shared" ref="G20:L20" si="13">SUM(G6:G19)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="26">
+        <f t="shared" si="13"/>
+        <v>32280000</v>
+      </c>
+      <c r="I20" s="26">
+        <f t="shared" si="13"/>
+        <v>5883500</v>
+      </c>
+      <c r="J20" s="26">
+        <f t="shared" si="13"/>
+        <v>1480000</v>
+      </c>
+      <c r="K20" s="26">
+        <f t="shared" si="13"/>
+        <v>1400000</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="42">
+        <f>SUM(P6:P19)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="26">
+        <f>SUM(Q6:Q19)</f>
+        <v>41043500</v>
+      </c>
+      <c r="R20" s="27"/>
+      <c r="S20" s="26">
+        <f>SUM(S6:S19)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="26">
+        <f>SUM(T6:T19)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="26">
+        <f>SUM(U6:U19)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="26">
+        <f>SUM(V6:V19)</f>
+        <v>41043500</v>
+      </c>
+      <c r="X20" s="26">
+        <f>SUM(X6:X19)</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="26">
+        <f>SUM(Y6:Y19)</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="26">
+        <f>SUM(Z6:Z19)</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="56"/>
+    </row>
+    <row r="21" spans="1:27" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="O25" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="O26" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="66">
+        <f>A18</f>
+        <v>13</v>
+      </c>
+      <c r="Q26" s="54">
+        <f>Q20</f>
+        <v>41043500</v>
+      </c>
+      <c r="R26" s="54">
+        <f>SUM(U11:U19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="O27" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="54">
+        <v>0</v>
+      </c>
+      <c r="R27" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="O28" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54">
+        <f>Q28*2.5%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="O29" s="54"/>
+      <c r="P29" s="67">
+        <f>SUM(P26:P28)</f>
+        <v>13</v>
+      </c>
+      <c r="Q29" s="55">
+        <f>SUM(Q26:Q28)</f>
+        <v>41043500</v>
+      </c>
+      <c r="R29" s="55">
+        <f>SUM(R26:R28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="O30" s="54"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="54"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="55">
+        <f>SUM(R29:R31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A5:G5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mohon masukkan PTKP dengan benar" sqref="F6:F18">
+      <formula1>"TK/0,TK/1,TK/2,TK/3,K/0,K/1,K/2,K/3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>